--- a/Source/DK.Web/ReportTemplates/6BC.xlsx
+++ b/Source/DK.Web/ReportTemplates/6BC.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qlts\Source\DK.Web\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E388AD-2E07-4035-83EF-9E1F91FFD403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="1248" yWindow="2256" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="__row__">Sheet1!$A$9</definedName>
+    <definedName name="__sum__">Sheet1!$I$10</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <r>
       <t xml:space="preserve">BỘ CÔNG AN
@@ -202,11 +204,59 @@
   <si>
     <t>Mẫu &lt;#pattern&gt; ban hành kèm theo Thông tư số …………../2020/TT-BCA ngày …../…/2020</t>
   </si>
+  <si>
+    <t>&lt;#row.NganSachBo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.Khac&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.TongCong&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.HaoMonLuyKe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.GiaTriConLai&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.GhiChu&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sum.NganSachBo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sum.Khac&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sum.TongCong&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sum.HaoMonLuyKe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.NamSuDung&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.No&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.Code&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.Name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.NhanHieu&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.Serial&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,10 +455,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -433,21 +498,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,87 +778,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="11"/>
       <c r="E1" s="8"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="8"/>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
-    <row r="2" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
-    <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -816,55 +866,55 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18" t="s">
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="6" t="s">
         <v>5</v>
       </c>
@@ -874,11 +924,11 @@
       <c r="K7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
     </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -922,90 +972,97 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="N10" s="13"/>
     </row>
-    <row r="11" spans="1:14" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:14" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="12"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="A1:C1"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A4:N4"/>
@@ -1017,9 +1074,14 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Source/DK.Web/ReportTemplates/6BC.xlsx
+++ b/Source/DK.Web/ReportTemplates/6BC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E388AD-2E07-4035-83EF-9E1F91FFD403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1248" yWindow="2256" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1245" yWindow="2250" windowWidth="23040" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -30,23 +29,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
-  <si>
-    <r>
-      <t xml:space="preserve">BỘ CÔNG AN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>…………………………………
-…………………………………</t>
-    </r>
-  </si>
   <si>
     <t>Thời điểm: Ngày……. tháng……. Năm…….</t>
   </si>
@@ -202,9 +184,6 @@
     </r>
   </si>
   <si>
-    <t>Mẫu &lt;#pattern&gt; ban hành kèm theo Thông tư số …………../2020/TT-BCA ngày …../…/2020</t>
-  </si>
-  <si>
     <t>&lt;#row.NganSachBo&gt;</t>
   </si>
   <si>
@@ -251,12 +230,19 @@
   </si>
   <si>
     <t>&lt;#row.Serial&gt;</t>
+  </si>
+  <si>
+    <t>BỘ CÔNG AN
+Viện Khoa Học Hình Sự</t>
+  </si>
+  <si>
+    <t>Mẫu &lt;#pattern&gt; ban hành kèm theo Thông tư số 109/2020/TT-BCA ngày 10/10/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -460,6 +446,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -475,25 +476,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -778,87 +764,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A2" sqref="A2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
+    <row r="1" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="11"/>
       <c r="E1" s="8"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="8"/>
       <c r="K1" s="30" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
       <c r="N1" s="30"/>
     </row>
-    <row r="2" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
+    <row r="2" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
     </row>
-    <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
+    <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -866,69 +852,69 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="D6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="23" t="s">
+    </row>
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="J7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-    </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -972,97 +958,100 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="D9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="E9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="J10" s="17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="17" t="s">
+      <c r="K10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="L10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="M10" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N10" s="13"/>
     </row>
-    <row r="11" spans="1:14" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
+    <row r="11" spans="1:14" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="12"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="L11" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
+      <c r="L11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A4:N4"/>
@@ -1079,9 +1068,6 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Source/DK.Web/ReportTemplates/6BC.xlsx
+++ b/Source/DK.Web/ReportTemplates/6BC.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Thời điểm: Ngày……. tháng……. Năm…….</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Mẫu &lt;#pattern&gt; ban hành kèm theo Thông tư số 109/2020/TT-BCA ngày 10/10/2020</t>
+  </si>
+  <si>
+    <t>&lt;#sum.GiaTriConLai&gt;</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -443,7 +446,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -458,31 +485,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -767,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,58 +797,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="11"/>
       <c r="E1" s="8"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="8"/>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
@@ -856,13 +862,13 @@
       <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="22" t="s">
@@ -894,9 +900,9 @@
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
-      <c r="B7" s="24"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="24"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
@@ -983,19 +989,19 @@
       <c r="H9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="30" t="s">
         <v>24</v>
       </c>
       <c r="N9" s="7" t="s">
@@ -1003,55 +1009,52 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="17" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="17" t="s">
-        <v>24</v>
+      <c r="M10" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:14" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="12"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A4:N4"/>
@@ -1068,6 +1071,9 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Source/DK.Web/ReportTemplates/6BC.xlsx
+++ b/Source/DK.Web/ReportTemplates/6BC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qlts\Source\DK.Web\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D255D0F2-242E-437C-9C9A-7FD293704F4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="2250" windowWidth="23040" windowHeight="12210"/>
+    <workbookView xWindow="2628" yWindow="1884" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -137,9 +138,6 @@
     <t>Giá trị còn lại</t>
   </si>
   <si>
-    <t>&lt;#row.&gt;</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -241,11 +239,14 @@
   <si>
     <t>&lt;#sum.GiaTriConLai&gt;</t>
   </si>
+  <si>
+    <t>&lt;#row.DungTichXiLanh&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,6 +447,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -460,36 +491,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,87 +771,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:M10"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
+    <row r="1" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="11"/>
       <c r="E1" s="8"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="8"/>
-      <c r="K1" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
+      <c r="K1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
-    <row r="2" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
+    <row r="2" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
-    <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -858,55 +859,55 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="6" t="s">
         <v>4</v>
       </c>
@@ -916,11 +917,11 @@
       <c r="K7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
     </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -964,97 +965,103 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="K9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="L9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="M9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="30" t="s">
+      <c r="N9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="31" t="s">
+      <c r="J10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="K10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="L10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>38</v>
+      <c r="M10" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="N10" s="13"/>
     </row>
-    <row r="11" spans="1:14" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:14" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="12"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="L11" s="26" t="s">
+      <c r="L11" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A4:N4"/>
@@ -1068,12 +1075,6 @@
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Source/DK.Web/ReportTemplates/6BC.xlsx
+++ b/Source/DK.Web/ReportTemplates/6BC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D255D0F2-242E-437C-9C9A-7FD293704F4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCA4D34-3867-4DF5-A3DD-1F8EEB5BA4C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2628" yWindow="1884" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1704" yWindow="1512" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -453,6 +453,21 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -475,21 +490,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,81 +775,81 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10" style="5" customWidth="1"/>
     <col min="7" max="7" width="8.44140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="2" customWidth="1"/>
     <col min="14" max="14" width="9.5546875" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="11"/>
       <c r="E1" s="8"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="8"/>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
@@ -860,54 +860,54 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19" t="s">
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="6" t="s">
         <v>4</v>
       </c>
@@ -917,9 +917,9 @@
       <c r="K7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
@@ -1009,17 +1009,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="18" t="s">
         <v>25</v>
       </c>
@@ -1038,30 +1038,24 @@
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:14" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="12"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A4:N4"/>
@@ -1075,6 +1069,12 @@
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
